--- a/entrega_grupo.xlsx
+++ b/entrega_grupo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-marcos\RecodePRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84C159D-6670-455C-A30E-8AE49A1BF881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360D7924-ECCF-4620-B9FD-7FA7C875BA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9D74A95-77CF-4358-A109-166C91114A7E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
   <si>
     <t>Criar site em HTML</t>
   </si>
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +323,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFB2BAA-E29D-4D89-8847-DCB5285664DB}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
@@ -838,10 +839,14 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E14" s="5">
+        <v>45157</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -850,10 +855,14 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E15" s="3">
+        <v>45157</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -862,8 +871,12 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="5">
+        <v>45157</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">

--- a/entrega_grupo.xlsx
+++ b/entrega_grupo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-marcos\RecodePRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Squad23\sitelace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360D7924-ECCF-4620-B9FD-7FA7C875BA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AC6BD2-C9B6-439C-87A1-BF945C559A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9D74A95-77CF-4358-A109-166C91114A7E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
   <si>
     <t>Criar site em HTML</t>
   </si>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFB2BAA-E29D-4D89-8847-DCB5285664DB}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,15 +1026,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="5">
+        <v>45157</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
